--- a/data/San Leandro Street Names - Shaffer.xlsx
+++ b/data/San Leandro Street Names - Shaffer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="222">
   <si>
     <t>Street</t>
   </si>
@@ -632,9 +632,6 @@
     <t>W. Joaquin Ave.</t>
   </si>
   <si>
-    <t>Halcyon Ave.</t>
-  </si>
-  <si>
     <t>143rd Ave.</t>
   </si>
   <si>
@@ -671,13 +668,28 @@
     <t>&lt;none&gt;</t>
   </si>
   <si>
-    <t>Washington St.</t>
-  </si>
-  <si>
     <t>Watkins St.</t>
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Halcyon Dr.</t>
+  </si>
+  <si>
+    <t>Huff Ave.</t>
+  </si>
+  <si>
+    <t>Melven Ct.</t>
+  </si>
+  <si>
+    <t>Mulford Point Dr.</t>
+  </si>
+  <si>
+    <t>Peralta Ave.</t>
+  </si>
+  <si>
+    <t>Washington Ave.</t>
   </si>
 </sst>
 </file>
@@ -1169,8 +1181,8 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1182,10 +1194,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -1214,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -1387,7 +1399,7 @@
         <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>47</v>
@@ -1407,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>52</v>
@@ -1418,7 +1430,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>55</v>
@@ -1556,7 +1568,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>87</v>
@@ -1567,7 +1579,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
@@ -1612,7 +1624,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>99</v>
@@ -1623,7 +1635,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>102</v>
@@ -1688,7 +1700,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>117</v>
@@ -1720,7 +1732,7 @@
         <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>125</v>
@@ -1728,7 +1740,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
@@ -1746,7 +1758,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -1758,7 +1770,7 @@
         <v>133</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>134</v>
@@ -1793,7 +1805,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
@@ -1802,7 +1814,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>144</v>
@@ -1831,7 +1843,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>151</v>
@@ -1987,13 +1999,13 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:3">
